--- a/Planification/ProtocoleTest.xlsx
+++ b/Planification/ProtocoleTest.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20397"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2AFD738-6D26-40FF-8DAF-35422F76E3A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2355C51C-C261-4F4B-8C9D-3687F2D1B080}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
   <si>
     <t>Brancher 4 ordinateurs sur le même réseau.</t>
   </si>
@@ -116,6 +116,111 @@
   </si>
   <si>
     <t>Streaming</t>
+  </si>
+  <si>
+    <t>Démmarer un stream</t>
+  </si>
+  <si>
+    <t>Vérifiez que tous les élèves recoivent bien les images.</t>
+  </si>
+  <si>
+    <t>Priorité du Stream</t>
+  </si>
+  <si>
+    <t>Focus de Stream</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>E8</t>
+  </si>
+  <si>
+    <t>E9</t>
+  </si>
+  <si>
+    <t>E10</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>F2</t>
   </si>
 </sst>
 </file>
@@ -440,180 +545,293 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A45"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="99.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="99.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="B34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="B36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" t="s">
         <v>19</v>
       </c>
     </row>

--- a/Planification/ProtocoleTest.xlsx
+++ b/Planification/ProtocoleTest.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20397"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2355C51C-C261-4F4B-8C9D-3687F2D1B080}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84BE462-8DE3-4D4E-96FA-2908C522FA99}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="91">
   <si>
     <t>Brancher 4 ordinateurs sur le même réseau.</t>
   </si>
@@ -49,9 +49,6 @@
     <t>Vérifier que les informations sont correctement affichées pour tous les élèves.</t>
   </si>
   <si>
-    <t>Vérifiez le bon fonctionnement de l’affiche des captures :</t>
-  </si>
-  <si>
     <t>Vérifier que les élèves ne peuvent pas regagner le contrôle :</t>
   </si>
   <si>
@@ -73,30 +70,12 @@
     <t>Vérifier que les élèves ont bien regagné le contrôle du clavier et la souris.</t>
   </si>
   <si>
-    <t>Lancer le Stream en TopMost et vérifier que les élèves ne peuvent pas mettre des fenêtres devant le Stream.</t>
-  </si>
-  <si>
-    <t>Démarrer un Streaming en multicast en bloquant le clavier et la souris (Tous les élèves focus:tout).</t>
-  </si>
-  <si>
     <t>Démarrer un Streaming en multicast avec en focus Word.</t>
   </si>
   <si>
-    <t>Démmarez des applications au hazard sur les pc des élèves ainsi que word.</t>
-  </si>
-  <si>
     <t>Communications</t>
   </si>
   <si>
-    <t>Démmarage</t>
-  </si>
-  <si>
-    <t>Vérifiez que les porcessus sont correctement afficher chez le professeur.</t>
-  </si>
-  <si>
-    <t>lancez des application sur les élèves.</t>
-  </si>
-  <si>
     <t>Vérifiez que les urls sont correctement affiché chez le professeur.</t>
   </si>
   <si>
@@ -109,21 +88,9 @@
     <t>Ajouter/retirer des captures d’écran avec le TreeView en bas à gauche</t>
   </si>
   <si>
-    <t>Redimensionnez la zone. (selectionnez les bords et déplacer les)</t>
-  </si>
-  <si>
-    <t>Modifier le zoom. (avec le slider en haut à gauche)</t>
-  </si>
-  <si>
     <t>Streaming</t>
   </si>
   <si>
-    <t>Démmarer un stream</t>
-  </si>
-  <si>
-    <t>Vérifiez que tous les élèves recoivent bien les images.</t>
-  </si>
-  <si>
     <t>Priorité du Stream</t>
   </si>
   <si>
@@ -205,9 +172,6 @@
     <t>E10</t>
   </si>
   <si>
-    <t>C1</t>
-  </si>
-  <si>
     <t>C2</t>
   </si>
   <si>
@@ -221,13 +185,121 @@
   </si>
   <si>
     <t>F2</t>
+  </si>
+  <si>
+    <t>1 application professeur allumée</t>
+  </si>
+  <si>
+    <t>3 applications élèves allumée</t>
+  </si>
+  <si>
+    <t>Des navigateurs ouverts</t>
+  </si>
+  <si>
+    <t>Elle se referment en moins d'une seconde</t>
+  </si>
+  <si>
+    <t>Actions</t>
+  </si>
+  <si>
+    <t>Attente</t>
+  </si>
+  <si>
+    <t>Résultat</t>
+  </si>
+  <si>
+    <t>Lancer le Stream en TopMost</t>
+  </si>
+  <si>
+    <t>Démarrer un Streaming en multicast en bloquant le clavier et la souris.</t>
+  </si>
+  <si>
+    <t>Bloque la souris mais regagne le clavier pour se reconnecter</t>
+  </si>
+  <si>
+    <t>Elle est demandée ou cliquez sur le bouton Changer l'IP</t>
+  </si>
+  <si>
+    <t>Voir par exemple 157.26.227.198</t>
+  </si>
+  <si>
+    <t>Démarrage</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>4 ordinateurs allumés</t>
+  </si>
+  <si>
+    <t>Sur les applications élèves dans la listbox il y a Connected</t>
+  </si>
+  <si>
+    <t>Dans l'application professeur vérifiez que les urls apparaissent</t>
+  </si>
+  <si>
+    <t>Lancez des applications sur les élèves.</t>
+  </si>
+  <si>
+    <t>Des applications ouvertes</t>
+  </si>
+  <si>
+    <t>Vérifiez que les processus sont correctement affichés chez le professeur.</t>
+  </si>
+  <si>
+    <t>Dans l'application professeur vérifiez que les processus apparaissent</t>
+  </si>
+  <si>
+    <t>Allez sur plusieurs sites différents</t>
+  </si>
+  <si>
+    <t>Tous les sites visités sont affichés avec leur heure de visite</t>
+  </si>
+  <si>
+    <t>Les captures sont ajoutées et retirées</t>
+  </si>
+  <si>
+    <t>Redimensionnez la zone. (Sélectionnez les bords et déplacer les)</t>
+  </si>
+  <si>
+    <t>Les captures sont affichées pour rester dans la zone</t>
+  </si>
+  <si>
+    <t>Modifier le zoom. (Avec le slider en haut à gauche)</t>
+  </si>
+  <si>
+    <t>Démarrer un Stream, sélectionnez tous les élèves</t>
+  </si>
+  <si>
+    <t>Vérifiez que tous les élèves reçoivent bien les images.</t>
+  </si>
+  <si>
+    <t>Aucun résultat</t>
+  </si>
+  <si>
+    <t>Tous fonctionnent normalement</t>
+  </si>
+  <si>
+    <t>Les autres fenêtres restent derrière le Stream</t>
+  </si>
+  <si>
+    <t>Démarrez des applications au Hazard sur les pc des élèves ainsi que Word.</t>
+  </si>
+  <si>
+    <t>Beaucoup d'application ouvertes</t>
+  </si>
+  <si>
+    <t>Toutes les application ce ferme sauf le Stream et Word</t>
+  </si>
+  <si>
+    <t>Essayer d'ouvrir d'autres applications</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,8 +307,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -245,7 +330,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor rgb="FF9BC2E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBDD7EE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -262,9 +353,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -545,297 +650,511 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="99.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.140625" customWidth="1"/>
+    <col min="3" max="3" width="42.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>39</v>
       </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>40</v>
       </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>41</v>
       </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B25" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>42</v>
       </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>43</v>
       </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>44</v>
       </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>45</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>61</v>
-      </c>
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>62</v>
-      </c>
-      <c r="B18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>63</v>
-      </c>
-      <c r="B19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>64</v>
-      </c>
-      <c r="B20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>54</v>
       </c>
-      <c r="B28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>55</v>
-      </c>
-      <c r="B29" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="B36" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>57</v>
-      </c>
-      <c r="B31" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>58</v>
-      </c>
-      <c r="B32" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>59</v>
-      </c>
-      <c r="B33" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>60</v>
-      </c>
-      <c r="B34" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>65</v>
-      </c>
-      <c r="B36" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>66</v>
-      </c>
-      <c r="B37" t="s">
-        <v>19</v>
+      <c r="C39" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B21:D21"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Planification/ProtocoleTest.xlsx
+++ b/Planification/ProtocoleTest.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20397"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84BE462-8DE3-4D4E-96FA-2908C522FA99}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE44A084-241E-4409-9E34-B97B983B72A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="91">
   <si>
     <t>Brancher 4 ordinateurs sur le même réseau.</t>
   </si>
@@ -299,7 +299,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -319,6 +319,14 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -341,7 +349,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -349,25 +357,190 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -652,8 +825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,16 +834,17 @@
     <col min="1" max="1" width="15.42578125" customWidth="1"/>
     <col min="2" max="2" width="44.140625" customWidth="1"/>
     <col min="3" max="3" width="42.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:4" ht="42" x14ac:dyDescent="0.25">
+      <c r="B1" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="15" t="s">
         <v>61</v>
       </c>
     </row>
@@ -678,21 +852,21 @@
       <c r="A2" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="2"/>
+      <c r="D3" s="11" t="s">
         <v>68</v>
       </c>
     </row>
@@ -700,13 +874,13 @@
       <c r="A4" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="12" t="s">
         <v>68</v>
       </c>
     </row>
@@ -714,13 +888,13 @@
       <c r="A5" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="12" t="s">
         <v>68</v>
       </c>
     </row>
@@ -728,13 +902,13 @@
       <c r="A6" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="12" t="s">
         <v>68</v>
       </c>
     </row>
@@ -742,13 +916,13 @@
       <c r="A7" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="12" t="s">
         <v>68</v>
       </c>
     </row>
@@ -756,24 +930,24 @@
       <c r="A8" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="12" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="12" t="s">
         <v>68</v>
       </c>
     </row>
@@ -781,23 +955,23 @@
       <c r="A10" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="9" t="s">
         <v>68</v>
       </c>
     </row>
@@ -805,13 +979,13 @@
       <c r="A12" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="9" t="s">
         <v>68</v>
       </c>
     </row>
@@ -819,13 +993,13 @@
       <c r="A13" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="9" t="s">
         <v>68</v>
       </c>
     </row>
@@ -833,13 +1007,13 @@
       <c r="A14" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="9" t="s">
         <v>68</v>
       </c>
     </row>
@@ -847,24 +1021,24 @@
       <c r="A15" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="9" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="9" t="s">
         <v>68</v>
       </c>
     </row>
@@ -872,23 +1046,23 @@
       <c r="A17" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="9" t="s">
         <v>68</v>
       </c>
     </row>
@@ -896,24 +1070,24 @@
       <c r="A19" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="9" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="9" t="s">
         <v>68</v>
       </c>
     </row>
@@ -921,30 +1095,30 @@
       <c r="A21" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1" t="s">
+      <c r="C22" s="2"/>
+      <c r="D22" s="9" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1" t="s">
+      <c r="C23" s="2"/>
+      <c r="D23" s="9" t="s">
         <v>68</v>
       </c>
     </row>
@@ -952,21 +1126,21 @@
       <c r="A24" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1" t="s">
+      <c r="C25" s="2"/>
+      <c r="D25" s="9" t="s">
         <v>68</v>
       </c>
     </row>
@@ -974,11 +1148,11 @@
       <c r="A26" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1" t="s">
+      <c r="C26" s="2"/>
+      <c r="D26" s="9" t="s">
         <v>68</v>
       </c>
     </row>
@@ -986,13 +1160,13 @@
       <c r="A27" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="9" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1000,13 +1174,13 @@
       <c r="A28" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="9" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1014,13 +1188,13 @@
       <c r="A29" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="9" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1028,13 +1202,13 @@
       <c r="A30" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="9" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1042,11 +1216,11 @@
       <c r="A31" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1" t="s">
+      <c r="C31" s="2"/>
+      <c r="D31" s="9" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1054,13 +1228,13 @@
       <c r="A32" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="9" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1068,24 +1242,24 @@
       <c r="A33" t="s">
         <v>49</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="9" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="9" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1093,56 +1267,56 @@
       <c r="A35" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="9" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="9" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="2" t="s">
+      <c r="D38" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="10" t="s">
         <v>68</v>
       </c>
     </row>
